--- a/research/1yr-9mnth-back-2002-jan/results-1.xlsx
+++ b/research/1yr-9mnth-back-2002-jan/results-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jimmy\cagr-analysis\research\1yr-9mnth-back-2002-jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB8BEB-3D7D-446F-9FFF-83F2E2236D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E904CC9-E975-46AC-9079-2B0F13AA259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57705" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>date</t>
   </si>
@@ -188,6 +188,9 @@
   <si>
     <t>06-01-2024</t>
   </si>
+  <si>
+    <t>This is for from no. 6 to 25 rolling average.. Want to see if things changes going down the line</t>
+  </si>
 </sst>
 </file>
 
@@ -248,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -256,6 +259,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3293,7 @@
         <f t="shared" si="1"/>
         <v>52.75</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26">
         <f t="shared" si="1"/>
         <v>54.75</v>
       </c>
@@ -3315,6 +3321,2212 @@
         <f t="shared" si="1"/>
         <v>48.95</v>
       </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>365</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(E26)</f>
+        <v>45.65</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE($E$26:F26)</f>
+        <v>47.875</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE($E$26:G26)</f>
+        <v>48.416666666666664</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE($E$26:H26)</f>
+        <v>51.037500000000001</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE($E$26:I26)</f>
+        <v>51.3</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE($E$26:J26)</f>
+        <v>51.366666666666667</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE($E$26:K26)</f>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGE($E$26:L26)</f>
+        <v>50.618749999999999</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE($E$26:M26)</f>
+        <v>50.255555555555553</v>
+      </c>
+      <c r="N30">
+        <f>AVERAGE($E$26:N26)</f>
+        <v>49.989999999999995</v>
+      </c>
+      <c r="O30">
+        <f>AVERAGE($E$26:O26)</f>
+        <v>49.972727272727269</v>
+      </c>
+      <c r="P30">
+        <f>AVERAGE($E$26:P26)</f>
+        <v>50.024999999999999</v>
+      </c>
+      <c r="Q30">
+        <f>AVERAGE($E$26:Q26)</f>
+        <v>50.188461538461532</v>
+      </c>
+      <c r="R30">
+        <f>AVERAGE($E$26:R26)</f>
+        <v>50.371428571428567</v>
+      </c>
+      <c r="S30">
+        <f>AVERAGE($E$26:S26)</f>
+        <v>50.663333333333327</v>
+      </c>
+      <c r="T30">
+        <f>AVERAGE($E$26:T26)</f>
+        <v>50.837499999999999</v>
+      </c>
+      <c r="U30">
+        <f>AVERAGE($E$26:U26)</f>
+        <v>50.864705882352936</v>
+      </c>
+      <c r="V30">
+        <f>AVERAGE($E$26:V26)</f>
+        <v>50.855555555555554</v>
+      </c>
+      <c r="W30">
+        <f>AVERAGE($E$26:W26)</f>
+        <v>50.776315789473685</v>
+      </c>
+      <c r="X30">
+        <f>AVERAGE($E$26:X26)</f>
+        <v>50.727499999999999</v>
+      </c>
+      <c r="Y30">
+        <f>AVERAGE($E$26:Y26)</f>
+        <v>50.642857142857146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2">
+        <v>365</v>
+      </c>
+      <c r="E31">
+        <v>184.3</v>
+      </c>
+      <c r="F31">
+        <v>240.8</v>
+      </c>
+      <c r="G31">
+        <v>363.36666666666662</v>
+      </c>
+      <c r="H31">
+        <v>384.25</v>
+      </c>
+      <c r="I31">
+        <v>407.84000000000003</v>
+      </c>
+      <c r="J31">
+        <v>346.75</v>
+      </c>
+      <c r="K31">
+        <v>379.3</v>
+      </c>
+      <c r="L31">
+        <v>346.1875</v>
+      </c>
+      <c r="M31">
+        <v>330.46666666666664</v>
+      </c>
+      <c r="N31">
+        <v>343.84</v>
+      </c>
+      <c r="O31">
+        <v>321.31818181818176</v>
+      </c>
+      <c r="P31">
+        <v>303.06666666666666</v>
+      </c>
+      <c r="Q31">
+        <v>294.59999999999997</v>
+      </c>
+      <c r="R31">
+        <v>293.4785714285714</v>
+      </c>
+      <c r="S31">
+        <v>286.82666666666665</v>
+      </c>
+      <c r="T31">
+        <v>283.08749999999998</v>
+      </c>
+      <c r="U31">
+        <v>281.35882352941172</v>
+      </c>
+      <c r="V31">
+        <v>263.76111111111112</v>
+      </c>
+      <c r="W31">
+        <v>258.07368421052632</v>
+      </c>
+      <c r="X31">
+        <v>255.30499999999998</v>
+      </c>
+      <c r="Y31">
+        <v>248.08095238095237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="2">
+        <v>365</v>
+      </c>
+      <c r="E32">
+        <v>49.7</v>
+      </c>
+      <c r="F32">
+        <v>31.200000000000003</v>
+      </c>
+      <c r="G32">
+        <v>27.633333333333336</v>
+      </c>
+      <c r="H32">
+        <v>49.75</v>
+      </c>
+      <c r="I32">
+        <v>53.58</v>
+      </c>
+      <c r="J32">
+        <v>44.04999999999999</v>
+      </c>
+      <c r="K32">
+        <v>49.199999999999996</v>
+      </c>
+      <c r="L32">
+        <v>46.224999999999994</v>
+      </c>
+      <c r="M32">
+        <v>46.722222222222214</v>
+      </c>
+      <c r="N32">
+        <v>47.55</v>
+      </c>
+      <c r="O32">
+        <v>44.590909090909086</v>
+      </c>
+      <c r="P32">
+        <v>40.43333333333333</v>
+      </c>
+      <c r="Q32">
+        <v>41.45384615384615</v>
+      </c>
+      <c r="R32">
+        <v>44.464285714285715</v>
+      </c>
+      <c r="S32">
+        <v>43.059999999999995</v>
+      </c>
+      <c r="T32">
+        <v>39.681249999999999</v>
+      </c>
+      <c r="U32">
+        <v>35.747058823529407</v>
+      </c>
+      <c r="V32">
+        <v>32.861111111111107</v>
+      </c>
+      <c r="W32">
+        <v>31.794736842105259</v>
+      </c>
+      <c r="X32">
+        <v>34.624999999999993</v>
+      </c>
+      <c r="Y32">
+        <v>35.595238095238088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2">
+        <v>365</v>
+      </c>
+      <c r="E33">
+        <v>-15.1</v>
+      </c>
+      <c r="F33">
+        <v>141.79999999999998</v>
+      </c>
+      <c r="G33">
+        <v>97.999999999999986</v>
+      </c>
+      <c r="H33">
+        <v>128.35</v>
+      </c>
+      <c r="I33">
+        <v>150.82</v>
+      </c>
+      <c r="J33">
+        <v>177</v>
+      </c>
+      <c r="K33">
+        <v>149.02857142857144</v>
+      </c>
+      <c r="L33">
+        <v>147.48750000000001</v>
+      </c>
+      <c r="M33">
+        <v>139.67777777777781</v>
+      </c>
+      <c r="N33">
+        <v>127.75000000000003</v>
+      </c>
+      <c r="O33">
+        <v>121.53636363636366</v>
+      </c>
+      <c r="P33">
+        <v>164.70833333333337</v>
+      </c>
+      <c r="Q33">
+        <v>168.69230769230774</v>
+      </c>
+      <c r="R33">
+        <v>161.97142857142859</v>
+      </c>
+      <c r="S33">
+        <v>155.93333333333337</v>
+      </c>
+      <c r="T33">
+        <v>150.44375000000002</v>
+      </c>
+      <c r="U33">
+        <v>145.82352941176472</v>
+      </c>
+      <c r="V33">
+        <v>147.14444444444447</v>
+      </c>
+      <c r="W33">
+        <v>150.05789473684212</v>
+      </c>
+      <c r="X33">
+        <v>145.35000000000002</v>
+      </c>
+      <c r="Y33">
+        <v>139.45238095238096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
+        <v>365</v>
+      </c>
+      <c r="E34">
+        <v>83.1</v>
+      </c>
+      <c r="F34">
+        <v>102.05</v>
+      </c>
+      <c r="G34">
+        <v>79.966666666666654</v>
+      </c>
+      <c r="H34">
+        <v>80.5</v>
+      </c>
+      <c r="I34">
+        <v>58.320000000000007</v>
+      </c>
+      <c r="J34">
+        <v>48.683333333333337</v>
+      </c>
+      <c r="K34">
+        <v>54.957142857142863</v>
+      </c>
+      <c r="L34">
+        <v>47.162500000000009</v>
+      </c>
+      <c r="M34">
+        <v>41.333333333333343</v>
+      </c>
+      <c r="N34">
+        <v>33.260000000000005</v>
+      </c>
+      <c r="O34">
+        <v>30.04545454545455</v>
+      </c>
+      <c r="P34">
+        <v>25.216666666666672</v>
+      </c>
+      <c r="Q34">
+        <v>30.246153846153849</v>
+      </c>
+      <c r="R34">
+        <v>28.685714285714287</v>
+      </c>
+      <c r="S34">
+        <v>30.233333333333334</v>
+      </c>
+      <c r="T34">
+        <v>29.024999999999999</v>
+      </c>
+      <c r="U34">
+        <v>30.470588235294116</v>
+      </c>
+      <c r="V34">
+        <v>32.211111111111109</v>
+      </c>
+      <c r="W34">
+        <v>34.56315789473684</v>
+      </c>
+      <c r="X34">
+        <v>32.884999999999998</v>
+      </c>
+      <c r="Y34">
+        <v>29.423809523809524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2">
+        <v>365</v>
+      </c>
+      <c r="E35">
+        <v>133.5</v>
+      </c>
+      <c r="F35">
+        <v>123.05</v>
+      </c>
+      <c r="G35">
+        <v>130.70000000000002</v>
+      </c>
+      <c r="H35">
+        <v>209.92500000000001</v>
+      </c>
+      <c r="I35">
+        <v>176.2</v>
+      </c>
+      <c r="J35">
+        <v>163.35</v>
+      </c>
+      <c r="K35">
+        <v>138.54285714285714</v>
+      </c>
+      <c r="L35">
+        <v>151.13750000000002</v>
+      </c>
+      <c r="M35">
+        <v>133.17777777777781</v>
+      </c>
+      <c r="N35">
+        <v>119.45000000000002</v>
+      </c>
+      <c r="O35">
+        <v>127.00000000000001</v>
+      </c>
+      <c r="P35">
+        <v>117.80000000000001</v>
+      </c>
+      <c r="Q35">
+        <v>107.86923076923078</v>
+      </c>
+      <c r="R35">
+        <v>105.97142857142858</v>
+      </c>
+      <c r="S35">
+        <v>102.15333333333335</v>
+      </c>
+      <c r="T35">
+        <v>104.12500000000001</v>
+      </c>
+      <c r="U35">
+        <v>102.70000000000002</v>
+      </c>
+      <c r="V35">
+        <v>96.338888888888903</v>
+      </c>
+      <c r="W35">
+        <v>93.605263157894754</v>
+      </c>
+      <c r="X35">
+        <v>100.50000000000003</v>
+      </c>
+      <c r="Y35">
+        <v>95.15238095238098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2">
+        <v>365</v>
+      </c>
+      <c r="E36">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="F36">
+        <v>-55.4</v>
+      </c>
+      <c r="G36">
+        <v>-59.79999999999999</v>
+      </c>
+      <c r="H36">
+        <v>-62.399999999999991</v>
+      </c>
+      <c r="I36">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="J36">
+        <v>-64.316666666666663</v>
+      </c>
+      <c r="K36">
+        <v>-67.071428571428569</v>
+      </c>
+      <c r="L36">
+        <v>-69.775000000000006</v>
+      </c>
+      <c r="M36">
+        <v>-69.388888888888886</v>
+      </c>
+      <c r="N36">
+        <v>-69.66</v>
+      </c>
+      <c r="O36">
+        <v>-67.899999999999991</v>
+      </c>
+      <c r="P36">
+        <v>-67.95</v>
+      </c>
+      <c r="Q36">
+        <v>-68.84615384615384</v>
+      </c>
+      <c r="R36">
+        <v>-69.478571428571428</v>
+      </c>
+      <c r="S36">
+        <v>-68.36</v>
+      </c>
+      <c r="T36">
+        <v>-68.90625</v>
+      </c>
+      <c r="U36">
+        <v>-69.305882352941182</v>
+      </c>
+      <c r="V36">
+        <v>-69.427777777777777</v>
+      </c>
+      <c r="W36">
+        <v>-69.863157894736844</v>
+      </c>
+      <c r="X36">
+        <v>-69.635000000000005</v>
+      </c>
+      <c r="Y36">
+        <v>-69.95714285714287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2">
+        <v>365</v>
+      </c>
+      <c r="E37">
+        <v>83.7</v>
+      </c>
+      <c r="F37">
+        <v>73</v>
+      </c>
+      <c r="G37">
+        <v>38.366666666666667</v>
+      </c>
+      <c r="H37">
+        <v>52.274999999999999</v>
+      </c>
+      <c r="I37">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="J37">
+        <v>63.9</v>
+      </c>
+      <c r="K37">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="L37">
+        <v>66.387500000000003</v>
+      </c>
+      <c r="M37">
+        <v>84.300000000000011</v>
+      </c>
+      <c r="N37">
+        <v>87.93</v>
+      </c>
+      <c r="O37">
+        <v>82.163636363636371</v>
+      </c>
+      <c r="P37">
+        <v>79.791666666666671</v>
+      </c>
+      <c r="Q37">
+        <v>74.31538461538463</v>
+      </c>
+      <c r="R37">
+        <v>80.592857142857156</v>
+      </c>
+      <c r="S37">
+        <v>80.573333333333338</v>
+      </c>
+      <c r="T37">
+        <v>84.818750000000009</v>
+      </c>
+      <c r="U37">
+        <v>81.658823529411762</v>
+      </c>
+      <c r="V37">
+        <v>78.611111111111114</v>
+      </c>
+      <c r="W37">
+        <v>78.110526315789471</v>
+      </c>
+      <c r="X37">
+        <v>74.52</v>
+      </c>
+      <c r="Y37">
+        <v>72.919047619047618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2">
+        <v>365</v>
+      </c>
+      <c r="E38">
+        <v>-33</v>
+      </c>
+      <c r="F38">
+        <v>28.700000000000003</v>
+      </c>
+      <c r="G38">
+        <v>21.433333333333337</v>
+      </c>
+      <c r="H38">
+        <v>18.375000000000004</v>
+      </c>
+      <c r="I38">
+        <v>71.28</v>
+      </c>
+      <c r="J38">
+        <v>58.883333333333326</v>
+      </c>
+      <c r="K38">
+        <v>51.257142857142853</v>
+      </c>
+      <c r="L38">
+        <v>42.599999999999994</v>
+      </c>
+      <c r="M38">
+        <v>46.911111111111104</v>
+      </c>
+      <c r="N38">
+        <v>43.129999999999995</v>
+      </c>
+      <c r="O38">
+        <v>45.981818181818177</v>
+      </c>
+      <c r="P38">
+        <v>50.866666666666667</v>
+      </c>
+      <c r="Q38">
+        <v>47.792307692307688</v>
+      </c>
+      <c r="R38">
+        <v>50.771428571428565</v>
+      </c>
+      <c r="S38">
+        <v>46.993333333333332</v>
+      </c>
+      <c r="T38">
+        <v>46.03125</v>
+      </c>
+      <c r="U38">
+        <v>42.241176470588236</v>
+      </c>
+      <c r="V38">
+        <v>40.772222222222219</v>
+      </c>
+      <c r="W38">
+        <v>41.005263157894738</v>
+      </c>
+      <c r="X38">
+        <v>41.855000000000004</v>
+      </c>
+      <c r="Y38">
+        <v>38.214285714285715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="2">
+        <v>365</v>
+      </c>
+      <c r="E39">
+        <v>-50.4</v>
+      </c>
+      <c r="F39">
+        <v>-47.3</v>
+      </c>
+      <c r="G39">
+        <v>-40.266666666666666</v>
+      </c>
+      <c r="H39">
+        <v>-29.625</v>
+      </c>
+      <c r="I39">
+        <v>-27.8</v>
+      </c>
+      <c r="J39">
+        <v>-25.333333333333332</v>
+      </c>
+      <c r="K39">
+        <v>-26.214285714285715</v>
+      </c>
+      <c r="L39">
+        <v>-25.012499999999999</v>
+      </c>
+      <c r="M39">
+        <v>-22.577777777777776</v>
+      </c>
+      <c r="N39">
+        <v>-26.810000000000002</v>
+      </c>
+      <c r="O39">
+        <v>-29.354545454545459</v>
+      </c>
+      <c r="P39">
+        <v>-29.508333333333336</v>
+      </c>
+      <c r="Q39">
+        <v>-29.746153846153849</v>
+      </c>
+      <c r="R39">
+        <v>-27.914285714285718</v>
+      </c>
+      <c r="S39">
+        <v>-24.573333333333338</v>
+      </c>
+      <c r="T39">
+        <v>-19.287500000000005</v>
+      </c>
+      <c r="U39">
+        <v>-20.194117647058828</v>
+      </c>
+      <c r="V39">
+        <v>-20.833333333333336</v>
+      </c>
+      <c r="W39">
+        <v>-21.184210526315791</v>
+      </c>
+      <c r="X39">
+        <v>-20.725000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>-18.771428571428572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="2">
+        <v>365</v>
+      </c>
+      <c r="E40">
+        <v>28.1</v>
+      </c>
+      <c r="F40">
+        <v>16.150000000000002</v>
+      </c>
+      <c r="G40">
+        <v>63.233333333333341</v>
+      </c>
+      <c r="H40">
+        <v>75.075000000000003</v>
+      </c>
+      <c r="I40">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="J40">
+        <v>68.233333333333334</v>
+      </c>
+      <c r="K40">
+        <v>53.471428571428575</v>
+      </c>
+      <c r="L40">
+        <v>49.412500000000001</v>
+      </c>
+      <c r="M40">
+        <v>44.111111111111114</v>
+      </c>
+      <c r="N40">
+        <v>53.54</v>
+      </c>
+      <c r="O40">
+        <v>57.127272727272725</v>
+      </c>
+      <c r="P40">
+        <v>59.583333333333336</v>
+      </c>
+      <c r="Q40">
+        <v>55.192307692307693</v>
+      </c>
+      <c r="R40">
+        <v>55.721428571428575</v>
+      </c>
+      <c r="S40">
+        <v>54.466666666666669</v>
+      </c>
+      <c r="T40">
+        <v>52.068750000000001</v>
+      </c>
+      <c r="U40">
+        <v>52.558823529411768</v>
+      </c>
+      <c r="V40">
+        <v>49.93888888888889</v>
+      </c>
+      <c r="W40">
+        <v>50.226315789473681</v>
+      </c>
+      <c r="X40">
+        <v>49.795000000000002</v>
+      </c>
+      <c r="Y40">
+        <v>48.852380952380955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2">
+        <v>365</v>
+      </c>
+      <c r="E41">
+        <v>27.8</v>
+      </c>
+      <c r="F41">
+        <v>18.8</v>
+      </c>
+      <c r="G41">
+        <v>18.5</v>
+      </c>
+      <c r="H41">
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="I41">
+        <v>-1.9600000000000009</v>
+      </c>
+      <c r="J41">
+        <v>16.883333333333329</v>
+      </c>
+      <c r="K41">
+        <v>10.642857142857141</v>
+      </c>
+      <c r="L41">
+        <v>25.887499999999996</v>
+      </c>
+      <c r="M41">
+        <v>21.444444444444443</v>
+      </c>
+      <c r="N41">
+        <v>21.409999999999997</v>
+      </c>
+      <c r="O41">
+        <v>20.75454545454545</v>
+      </c>
+      <c r="P41">
+        <v>14.566666666666663</v>
+      </c>
+      <c r="Q41">
+        <v>18.215384615384611</v>
+      </c>
+      <c r="R41">
+        <v>20.421428571428571</v>
+      </c>
+      <c r="S41">
+        <v>19.806666666666665</v>
+      </c>
+      <c r="T41">
+        <v>22.2</v>
+      </c>
+      <c r="U41">
+        <v>22.770588235294117</v>
+      </c>
+      <c r="V41">
+        <v>24.427777777777777</v>
+      </c>
+      <c r="W41">
+        <v>28.194736842105264</v>
+      </c>
+      <c r="X41">
+        <v>29.595000000000006</v>
+      </c>
+      <c r="Y41">
+        <v>29.31904761904762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2">
+        <v>365</v>
+      </c>
+      <c r="E42">
+        <v>125.8</v>
+      </c>
+      <c r="F42">
+        <v>150.44999999999999</v>
+      </c>
+      <c r="G42">
+        <v>103.3</v>
+      </c>
+      <c r="H42">
+        <v>90.05</v>
+      </c>
+      <c r="I42">
+        <v>121.97999999999999</v>
+      </c>
+      <c r="J42">
+        <v>108.89999999999999</v>
+      </c>
+      <c r="K42">
+        <v>89.271428571428572</v>
+      </c>
+      <c r="L42">
+        <v>91.862499999999997</v>
+      </c>
+      <c r="M42">
+        <v>83.455555555555563</v>
+      </c>
+      <c r="N42">
+        <v>85.8</v>
+      </c>
+      <c r="O42">
+        <v>89.081818181818178</v>
+      </c>
+      <c r="P42">
+        <v>94.016666666666666</v>
+      </c>
+      <c r="Q42">
+        <v>89.953846153846158</v>
+      </c>
+      <c r="R42">
+        <v>87.25</v>
+      </c>
+      <c r="S42">
+        <v>101.88000000000001</v>
+      </c>
+      <c r="T42">
+        <v>106.8625</v>
+      </c>
+      <c r="U42">
+        <v>101.36470588235295</v>
+      </c>
+      <c r="V42">
+        <v>105.21666666666667</v>
+      </c>
+      <c r="W42">
+        <v>103.58947368421053</v>
+      </c>
+      <c r="X42">
+        <v>102.27000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>99.290476190476184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="2">
+        <v>365</v>
+      </c>
+      <c r="E43">
+        <v>162.1</v>
+      </c>
+      <c r="F43">
+        <v>111</v>
+      </c>
+      <c r="G43">
+        <v>131.66666666666666</v>
+      </c>
+      <c r="H43">
+        <v>94.924999999999997</v>
+      </c>
+      <c r="I43">
+        <v>81.66</v>
+      </c>
+      <c r="J43">
+        <v>72.566666666666677</v>
+      </c>
+      <c r="K43">
+        <v>62.557142857142864</v>
+      </c>
+      <c r="L43">
+        <v>63.362500000000004</v>
+      </c>
+      <c r="M43">
+        <v>57.088888888888896</v>
+      </c>
+      <c r="N43">
+        <v>54.870000000000005</v>
+      </c>
+      <c r="O43">
+        <v>57.345454545454551</v>
+      </c>
+      <c r="P43">
+        <v>63.683333333333337</v>
+      </c>
+      <c r="Q43">
+        <v>70.907692307692315</v>
+      </c>
+      <c r="R43">
+        <v>74.007142857142867</v>
+      </c>
+      <c r="S43">
+        <v>71.460000000000008</v>
+      </c>
+      <c r="T43">
+        <v>66.193750000000009</v>
+      </c>
+      <c r="U43">
+        <v>64.029411764705898</v>
+      </c>
+      <c r="V43">
+        <v>62.333333333333343</v>
+      </c>
+      <c r="W43">
+        <v>59.468421052631598</v>
+      </c>
+      <c r="X43">
+        <v>55.08000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>51.980952380952395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2">
+        <v>365</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>19.95</v>
+      </c>
+      <c r="G44">
+        <v>-0.56666666666666765</v>
+      </c>
+      <c r="H44">
+        <v>11.975</v>
+      </c>
+      <c r="I44">
+        <v>6.2799999999999994</v>
+      </c>
+      <c r="J44">
+        <v>-2.2333333333333329</v>
+      </c>
+      <c r="K44">
+        <v>-6.0857142857142845</v>
+      </c>
+      <c r="L44">
+        <v>-2.7374999999999994</v>
+      </c>
+      <c r="M44">
+        <v>-6.1999999999999993</v>
+      </c>
+      <c r="N44">
+        <v>-3.2599999999999993</v>
+      </c>
+      <c r="O44">
+        <v>3.1454545454545464</v>
+      </c>
+      <c r="P44">
+        <v>2.183333333333334</v>
+      </c>
+      <c r="Q44">
+        <v>7.9307692307692328</v>
+      </c>
+      <c r="R44">
+        <v>5.6285714285714308</v>
+      </c>
+      <c r="S44">
+        <v>3.760000000000002</v>
+      </c>
+      <c r="T44">
+        <v>11.525000000000002</v>
+      </c>
+      <c r="U44">
+        <v>12.205882352941178</v>
+      </c>
+      <c r="V44">
+        <v>11.37777777777778</v>
+      </c>
+      <c r="W44">
+        <v>12.663157894736843</v>
+      </c>
+      <c r="X44">
+        <v>11.015000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>10.333333333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2">
+        <v>365</v>
+      </c>
+      <c r="E45">
+        <v>111.3</v>
+      </c>
+      <c r="F45">
+        <v>73.45</v>
+      </c>
+      <c r="G45">
+        <v>91.2</v>
+      </c>
+      <c r="H45">
+        <v>103.72500000000001</v>
+      </c>
+      <c r="I45">
+        <v>174.5</v>
+      </c>
+      <c r="J45">
+        <v>165.58333333333334</v>
+      </c>
+      <c r="K45">
+        <v>171.21428571428572</v>
+      </c>
+      <c r="L45">
+        <v>159.375</v>
+      </c>
+      <c r="M45">
+        <v>162.12222222222221</v>
+      </c>
+      <c r="N45">
+        <v>148.82999999999998</v>
+      </c>
+      <c r="O45">
+        <v>141.61818181818182</v>
+      </c>
+      <c r="P45">
+        <v>129.51666666666668</v>
+      </c>
+      <c r="Q45">
+        <v>123.46923076923078</v>
+      </c>
+      <c r="R45">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="S45">
+        <v>126.16000000000001</v>
+      </c>
+      <c r="T45">
+        <v>124.14375000000001</v>
+      </c>
+      <c r="U45">
+        <v>119.62941176470589</v>
+      </c>
+      <c r="V45">
+        <v>119.62777777777779</v>
+      </c>
+      <c r="W45">
+        <v>119.88947368421053</v>
+      </c>
+      <c r="X45">
+        <v>120.11500000000001</v>
+      </c>
+      <c r="Y45">
+        <v>119.24761904761905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2">
+        <v>365</v>
+      </c>
+      <c r="E46">
+        <v>-41.8</v>
+      </c>
+      <c r="F46">
+        <v>-31.7</v>
+      </c>
+      <c r="G46">
+        <v>-13.266666666666666</v>
+      </c>
+      <c r="H46">
+        <v>-5.9749999999999996</v>
+      </c>
+      <c r="I46">
+        <v>-8</v>
+      </c>
+      <c r="J46">
+        <v>-16.766666666666666</v>
+      </c>
+      <c r="K46">
+        <v>-18.557142857142857</v>
+      </c>
+      <c r="L46">
+        <v>-20.774999999999999</v>
+      </c>
+      <c r="M46">
+        <v>-23.133333333333333</v>
+      </c>
+      <c r="N46">
+        <v>-18.869999999999997</v>
+      </c>
+      <c r="O46">
+        <v>-20.036363636363635</v>
+      </c>
+      <c r="P46">
+        <v>-22.116666666666664</v>
+      </c>
+      <c r="Q46">
+        <v>-21.638461538461534</v>
+      </c>
+      <c r="R46">
+        <v>-24.007142857142856</v>
+      </c>
+      <c r="S46">
+        <v>-23.27333333333333</v>
+      </c>
+      <c r="T46">
+        <v>-22.193749999999998</v>
+      </c>
+      <c r="U46">
+        <v>-24.258823529411764</v>
+      </c>
+      <c r="V46">
+        <v>-24.011111111111109</v>
+      </c>
+      <c r="W46">
+        <v>-22.368421052631579</v>
+      </c>
+      <c r="X46">
+        <v>-20.615000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>-21.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2">
+        <v>365</v>
+      </c>
+      <c r="E47">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F47">
+        <v>62.45</v>
+      </c>
+      <c r="G47">
+        <v>63.033333333333339</v>
+      </c>
+      <c r="H47">
+        <v>45.925000000000004</v>
+      </c>
+      <c r="I47">
+        <v>37.440000000000005</v>
+      </c>
+      <c r="J47">
+        <v>33.233333333333334</v>
+      </c>
+      <c r="K47">
+        <v>36.357142857142854</v>
+      </c>
+      <c r="L47">
+        <v>32.15</v>
+      </c>
+      <c r="M47">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="N47">
+        <v>31.830000000000002</v>
+      </c>
+      <c r="O47">
+        <v>28.136363636363637</v>
+      </c>
+      <c r="P47">
+        <v>24.383333333333336</v>
+      </c>
+      <c r="Q47">
+        <v>24.361538461538466</v>
+      </c>
+      <c r="R47">
+        <v>26.685714285714287</v>
+      </c>
+      <c r="S47">
+        <v>28.680000000000003</v>
+      </c>
+      <c r="T47">
+        <v>22.406250000000004</v>
+      </c>
+      <c r="U47">
+        <v>23.917647058823533</v>
+      </c>
+      <c r="V47">
+        <v>45.5</v>
+      </c>
+      <c r="W47">
+        <v>41.647368421052626</v>
+      </c>
+      <c r="X47">
+        <v>38.964999999999996</v>
+      </c>
+      <c r="Y47">
+        <v>35.595238095238095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2">
+        <v>365</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G48">
+        <v>17.966666666666665</v>
+      </c>
+      <c r="H48">
+        <v>16.75</v>
+      </c>
+      <c r="I48">
+        <v>23.6</v>
+      </c>
+      <c r="J48">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="K48">
+        <v>20.514285714285716</v>
+      </c>
+      <c r="L48">
+        <v>48.900000000000006</v>
+      </c>
+      <c r="M48">
+        <v>45.033333333333339</v>
+      </c>
+      <c r="N48">
+        <v>45.180000000000007</v>
+      </c>
+      <c r="O48">
+        <v>50.927272727272729</v>
+      </c>
+      <c r="P48">
+        <v>45.5</v>
+      </c>
+      <c r="Q48">
+        <v>41.384615384615387</v>
+      </c>
+      <c r="R48">
+        <v>42.6</v>
+      </c>
+      <c r="S48">
+        <v>107.72</v>
+      </c>
+      <c r="T48">
+        <v>102.675</v>
+      </c>
+      <c r="U48">
+        <v>99.670588235294105</v>
+      </c>
+      <c r="V48">
+        <v>95.922222222222217</v>
+      </c>
+      <c r="W48">
+        <v>93.115789473684202</v>
+      </c>
+      <c r="X48">
+        <v>90.824999999999989</v>
+      </c>
+      <c r="Y48">
+        <v>89.85238095238094</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="2">
+        <v>365</v>
+      </c>
+      <c r="E49">
+        <v>217.7</v>
+      </c>
+      <c r="F49">
+        <v>413.04999999999995</v>
+      </c>
+      <c r="G49">
+        <v>315.99999999999994</v>
+      </c>
+      <c r="H49">
+        <v>248.97499999999997</v>
+      </c>
+      <c r="I49">
+        <v>193.87999999999997</v>
+      </c>
+      <c r="J49">
+        <v>645.30000000000007</v>
+      </c>
+      <c r="K49">
+        <v>608.38571428571424</v>
+      </c>
+      <c r="L49">
+        <v>546.79999999999995</v>
+      </c>
+      <c r="M49">
+        <v>495.46666666666664</v>
+      </c>
+      <c r="N49">
+        <v>466.41999999999996</v>
+      </c>
+      <c r="O49">
+        <v>431.50909090909084</v>
+      </c>
+      <c r="P49">
+        <v>413.25833333333327</v>
+      </c>
+      <c r="Q49">
+        <v>390.05384615384617</v>
+      </c>
+      <c r="R49">
+        <v>362.34285714285716</v>
+      </c>
+      <c r="S49">
+        <v>353.52000000000004</v>
+      </c>
+      <c r="T49">
+        <v>335.74375000000003</v>
+      </c>
+      <c r="U49">
+        <v>330.64117647058828</v>
+      </c>
+      <c r="V49">
+        <v>312.3055555555556</v>
+      </c>
+      <c r="W49">
+        <v>314.93157894736845</v>
+      </c>
+      <c r="X49">
+        <v>298.82000000000005</v>
+      </c>
+      <c r="Y49">
+        <v>286.39523809523808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2">
+        <v>365</v>
+      </c>
+      <c r="E50">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="F50">
+        <v>-37.35</v>
+      </c>
+      <c r="G50">
+        <v>-22.066666666666666</v>
+      </c>
+      <c r="H50">
+        <v>-20.575000000000003</v>
+      </c>
+      <c r="I50">
+        <v>-4.4600000000000026</v>
+      </c>
+      <c r="J50">
+        <v>-8.8166666666666682</v>
+      </c>
+      <c r="K50">
+        <v>-7.7285714285714304</v>
+      </c>
+      <c r="L50">
+        <v>-5.0500000000000025</v>
+      </c>
+      <c r="M50">
+        <v>-6.211111111111113</v>
+      </c>
+      <c r="N50">
+        <v>-8.3500000000000032</v>
+      </c>
+      <c r="O50">
+        <v>-8.2272727272727302</v>
+      </c>
+      <c r="P50">
+        <v>-9.4500000000000028</v>
+      </c>
+      <c r="Q50">
+        <v>-4.4307692307692337</v>
+      </c>
+      <c r="R50">
+        <v>-5.5428571428571454</v>
+      </c>
+      <c r="S50">
+        <v>-3.7866666666666693</v>
+      </c>
+      <c r="T50">
+        <v>-2.5562500000000026</v>
+      </c>
+      <c r="U50">
+        <v>-3.8470588235294136</v>
+      </c>
+      <c r="V50">
+        <v>-1.6111111111111132</v>
+      </c>
+      <c r="W50">
+        <v>-4.0526315789473699</v>
+      </c>
+      <c r="X50">
+        <v>-4.4400000000000013</v>
+      </c>
+      <c r="Y50">
+        <v>-5.5285714285714294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2">
+        <v>365</v>
+      </c>
+      <c r="E51">
+        <v>138</v>
+      </c>
+      <c r="F51">
+        <v>102.05</v>
+      </c>
+      <c r="G51">
+        <v>89.566666666666663</v>
+      </c>
+      <c r="H51" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>97.84</v>
+      </c>
+      <c r="J51" s="4">
+        <v>84.35</v>
+      </c>
+      <c r="K51" s="4">
+        <v>67.471428571428561</v>
+      </c>
+      <c r="L51" s="4">
+        <v>63.737499999999997</v>
+      </c>
+      <c r="M51" s="4">
+        <v>61.044444444444444</v>
+      </c>
+      <c r="N51">
+        <v>59.319999999999993</v>
+      </c>
+      <c r="O51">
+        <v>58.163636363636357</v>
+      </c>
+      <c r="P51">
+        <v>52.458333333333336</v>
+      </c>
+      <c r="Q51">
+        <v>52.215384615384615</v>
+      </c>
+      <c r="R51">
+        <v>51.149999999999991</v>
+      </c>
+      <c r="S51">
+        <v>48.086666666666666</v>
+      </c>
+      <c r="T51">
+        <v>47.131249999999994</v>
+      </c>
+      <c r="U51">
+        <v>44.85294117647058</v>
+      </c>
+      <c r="V51">
+        <v>47.127777777777766</v>
+      </c>
+      <c r="W51">
+        <v>45.147368421052626</v>
+      </c>
+      <c r="X51">
+        <v>44.189999999999991</v>
+      </c>
+      <c r="Y51">
+        <v>44.638095238095232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E53" s="4">
+        <f>AVERAGE(E30:E51)</f>
+        <v>57.993181818181817</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" ref="F53:Y53" si="2">AVERAGE(F30:F51)</f>
+        <v>72.43295454545455</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="2"/>
+        <v>71.199242424242428</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="2"/>
+        <v>73.817613636363618</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="2"/>
+        <v>79.152727272727262</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="2"/>
+        <v>93.180303030303037</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="2"/>
+        <v>87.865584415584422</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="2"/>
+        <v>84.361079545454558</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="2"/>
+        <v>79.22171717171716</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="2"/>
+        <v>76.961363636363629</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="2"/>
+        <v>74.313636363636377</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="2"/>
+        <v>72.819696969696963</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="2"/>
+        <v>71.099125874125875</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="2"/>
+        <v>70.203246753246745</v>
+      </c>
+      <c r="S53" s="4">
+        <f t="shared" si="2"/>
+        <v>72.362878787878785</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="2"/>
+        <v>71.184374999999989</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="2"/>
+        <v>69.313636363636377</v>
+      </c>
+      <c r="V53" s="4">
+        <f t="shared" si="2"/>
+        <v>68.202272727272742</v>
+      </c>
+      <c r="W53" s="4">
+        <f t="shared" si="2"/>
+        <v>67.699641148325355</v>
+      </c>
+      <c r="X53" s="4">
+        <f t="shared" si="2"/>
+        <v>66.410113636363633</v>
+      </c>
+      <c r="Y53" s="4">
+        <f t="shared" si="2"/>
+        <v>64.069480519480521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E54" s="4">
+        <f>MEDIAN(E30:E51)</f>
+        <v>47.674999999999997</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" ref="F54:Y54" si="3">MEDIAN(F30:F51)</f>
+        <v>55.162500000000001</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" si="3"/>
+        <v>55.725000000000001</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="3"/>
+        <v>51.65625</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="3"/>
+        <v>62.360000000000007</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="3"/>
+        <v>55.125</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="3"/>
+        <v>52.45</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="3"/>
+        <v>49.15625</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="3"/>
+        <v>46.816666666666663</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="3"/>
+        <v>48.769999999999996</v>
+      </c>
+      <c r="O54" s="4">
+        <f t="shared" si="3"/>
+        <v>50.45</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="3"/>
+        <v>50.445833333333333</v>
+      </c>
+      <c r="Q54" s="4">
+        <f t="shared" si="3"/>
+        <v>48.990384615384613</v>
+      </c>
+      <c r="R54" s="4">
+        <f t="shared" si="3"/>
+        <v>50.571428571428569</v>
+      </c>
+      <c r="S54" s="4">
+        <f t="shared" si="3"/>
+        <v>49.375</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="3"/>
+        <v>48.984375</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="3"/>
+        <v>47.858823529411758</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" si="3"/>
+        <v>48.533333333333331</v>
+      </c>
+      <c r="W54" s="4">
+        <f t="shared" si="3"/>
+        <v>47.686842105263153</v>
+      </c>
+      <c r="X54" s="4">
+        <f t="shared" si="3"/>
+        <v>46.992499999999993</v>
+      </c>
+      <c r="Y54" s="4">
+        <f t="shared" si="3"/>
+        <v>46.745238095238093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
